--- a/Data_frame/balancos_definitivos/TTEN3.xlsx
+++ b/Data_frame/balancos_definitivos/TTEN3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +560,12 @@
       <c r="N2" t="n">
         <v>6883788.8</v>
       </c>
+      <c r="O2" t="n">
+        <v>7442510.848</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8530219.007999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +612,12 @@
       <c r="N3" t="n">
         <v>4422007.808</v>
       </c>
+      <c r="O3" t="n">
+        <v>4849333.248</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5878986.24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,6 +664,12 @@
       <c r="N4" t="n">
         <v>1028483.008</v>
       </c>
+      <c r="O4" t="n">
+        <v>935238.0159999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1448705.024</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -688,6 +716,12 @@
       <c r="N5" t="n">
         <v>197451.008</v>
       </c>
+      <c r="O5" t="n">
+        <v>146480</v>
+      </c>
+      <c r="P5" t="n">
+        <v>185148.992</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +768,12 @@
       <c r="N6" t="n">
         <v>1281453.056</v>
       </c>
+      <c r="O6" t="n">
+        <v>1596228.992</v>
+      </c>
+      <c r="P6" t="n">
+        <v>798339.968</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -780,6 +820,12 @@
       <c r="N7" t="n">
         <v>1516013.952</v>
       </c>
+      <c r="O7" t="n">
+        <v>1857696</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3086614.016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +872,12 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,6 +924,12 @@
       <c r="N9" t="n">
         <v>207054</v>
       </c>
+      <c r="O9" t="n">
+        <v>220938</v>
+      </c>
+      <c r="P9" t="n">
+        <v>213212</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +976,12 @@
       <c r="N10" t="n">
         <v>9525</v>
       </c>
+      <c r="O10" t="n">
+        <v>11495</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5447</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +1028,12 @@
       <c r="N11" t="n">
         <v>182028</v>
       </c>
+      <c r="O11" t="n">
+        <v>81257</v>
+      </c>
+      <c r="P11" t="n">
+        <v>141519.008</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1080,12 @@
       <c r="N12" t="n">
         <v>476827.008</v>
       </c>
+      <c r="O12" t="n">
+        <v>462947.008</v>
+      </c>
+      <c r="P12" t="n">
+        <v>416403.008</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,6 +1132,12 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1102,6 +1184,12 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1148,6 +1236,12 @@
       <c r="N15" t="n">
         <v>0</v>
       </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1194,6 +1288,12 @@
       <c r="N16" t="n">
         <v>7212</v>
       </c>
+      <c r="O16" t="n">
+        <v>7816</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1240,6 +1340,12 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1286,6 +1392,12 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1332,6 +1444,12 @@
       <c r="N19" t="n">
         <v>273664</v>
       </c>
+      <c r="O19" t="n">
+        <v>257468.992</v>
+      </c>
+      <c r="P19" t="n">
+        <v>192968.992</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1378,6 +1496,12 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1424,6 +1548,12 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1470,6 +1600,12 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
+      <c r="O22" t="n">
+        <v>1792</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5183</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1516,6 +1652,12 @@
       <c r="N23" t="n">
         <v>1965620.992</v>
       </c>
+      <c r="O23" t="n">
+        <v>2100045.952</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2188395.008</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1562,6 +1704,12 @@
       <c r="N24" t="n">
         <v>19333</v>
       </c>
+      <c r="O24" t="n">
+        <v>28393</v>
+      </c>
+      <c r="P24" t="n">
+        <v>41252</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1608,6 +1756,12 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1654,6 +1808,12 @@
       <c r="N26" t="n">
         <v>6883788.8</v>
       </c>
+      <c r="O26" t="n">
+        <v>7442510.848</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8530219.007999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1700,6 +1860,12 @@
       <c r="N27" t="n">
         <v>2784745.984</v>
       </c>
+      <c r="O27" t="n">
+        <v>3164288</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3569024</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1746,6 +1912,12 @@
       <c r="N28" t="n">
         <v>48610</v>
       </c>
+      <c r="O28" t="n">
+        <v>38205</v>
+      </c>
+      <c r="P28" t="n">
+        <v>47882</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1792,6 +1964,12 @@
       <c r="N29" t="n">
         <v>2032130.048</v>
       </c>
+      <c r="O29" t="n">
+        <v>2323632.128</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2430176</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1838,6 +2016,12 @@
       <c r="N30" t="n">
         <v>12613</v>
       </c>
+      <c r="O30" t="n">
+        <v>19285</v>
+      </c>
+      <c r="P30" t="n">
+        <v>17842</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1884,6 +2068,12 @@
       <c r="N31" t="n">
         <v>562129.024</v>
       </c>
+      <c r="O31" t="n">
+        <v>608856</v>
+      </c>
+      <c r="P31" t="n">
+        <v>649752</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1930,6 +2120,12 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1976,6 +2172,12 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2022,6 +2224,12 @@
       <c r="N34" t="n">
         <v>129264</v>
       </c>
+      <c r="O34" t="n">
+        <v>174310</v>
+      </c>
+      <c r="P34" t="n">
+        <v>423372</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2068,6 +2276,12 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2114,6 +2328,12 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2160,6 +2380,12 @@
       <c r="N37" t="n">
         <v>747152</v>
       </c>
+      <c r="O37" t="n">
+        <v>838478.0159999999</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1360870.016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2206,6 +2432,12 @@
       <c r="N38" t="n">
         <v>710382.976</v>
       </c>
+      <c r="O38" t="n">
+        <v>800628.992</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1322889.984</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2252,6 +2484,12 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2298,6 +2536,12 @@
       <c r="N40" t="n">
         <v>25219</v>
       </c>
+      <c r="O40" t="n">
+        <v>24126</v>
+      </c>
+      <c r="P40" t="n">
+        <v>23559</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2344,6 +2588,12 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2390,6 +2640,12 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2436,6 +2692,12 @@
       <c r="N43" t="n">
         <v>11550</v>
       </c>
+      <c r="O43" t="n">
+        <v>13723</v>
+      </c>
+      <c r="P43" t="n">
+        <v>14421</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2482,6 +2744,12 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2528,6 +2796,12 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2574,6 +2848,12 @@
       <c r="N46" t="n">
         <v>4154</v>
       </c>
+      <c r="O46" t="n">
+        <v>4523</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5691</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2620,6 +2900,12 @@
       <c r="N47" t="n">
         <v>3347736.944</v>
       </c>
+      <c r="O47" t="n">
+        <v>3435222.024</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3594634.12</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2666,6 +2952,12 @@
       <c r="N48" t="n">
         <v>1518662.016</v>
       </c>
+      <c r="O48" t="n">
+        <v>1518662.016</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1518662.016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2712,6 +3004,12 @@
       <c r="N49" t="n">
         <v>32225</v>
       </c>
+      <c r="O49" t="n">
+        <v>33847</v>
+      </c>
+      <c r="P49" t="n">
+        <v>35252</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2758,6 +3056,12 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2804,6 +3108,12 @@
       <c r="N51" t="n">
         <v>1795128.064</v>
       </c>
+      <c r="O51" t="n">
+        <v>1880206.976</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2034727.04</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2850,6 +3160,12 @@
       <c r="N52" t="n">
         <v>0</v>
       </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2896,6 +3212,12 @@
       <c r="N53" t="n">
         <v>2005</v>
       </c>
+      <c r="O53" t="n">
+        <v>1768</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1532</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2942,6 +3264,12 @@
       <c r="N54" t="n">
         <v>-283</v>
       </c>
+      <c r="O54" t="n">
+        <v>738</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4461</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2988,6 +3316,12 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3032,6 +3366,12 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3054,6 +3394,8 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3074,6 +3416,8 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3118,6 +3462,12 @@
       <c r="N59" t="n">
         <v>3029589.504</v>
       </c>
+      <c r="O59" t="n">
+        <v>2679222.016</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2796468.992</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3162,6 +3512,12 @@
       <c r="N60" t="n">
         <v>-2602862.08</v>
       </c>
+      <c r="O60" t="n">
+        <v>-2178440.96</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-2080269.056</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3206,6 +3562,12 @@
       <c r="N61" t="n">
         <v>426728.032</v>
       </c>
+      <c r="O61" t="n">
+        <v>500780.992</v>
+      </c>
+      <c r="P61" t="n">
+        <v>716200</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3250,6 +3612,12 @@
       <c r="N62" t="n">
         <v>-290669.984</v>
       </c>
+      <c r="O62" t="n">
+        <v>-303017.984</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-298720</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3294,6 +3662,12 @@
       <c r="N63" t="n">
         <v>-20178</v>
       </c>
+      <c r="O63" t="n">
+        <v>-18957</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-21974</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3337,6 +3711,12 @@
       </c>
       <c r="N64" t="n">
         <v>-3571</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-1172</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-13093</v>
       </c>
     </row>
     <row r="65">
@@ -3382,6 +3762,12 @@
       <c r="N65" t="n">
         <v>16153</v>
       </c>
+      <c r="O65" t="n">
+        <v>8270</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-3731</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3426,6 +3812,12 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3469,6 +3861,12 @@
       </c>
       <c r="N67" t="n">
         <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-68</v>
       </c>
     </row>
     <row r="68">
@@ -3514,6 +3912,12 @@
       <c r="N68" t="n">
         <v>32763</v>
       </c>
+      <c r="O68" t="n">
+        <v>-9064</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-162104.992</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3558,6 +3962,12 @@
       <c r="N69" t="n">
         <v>110533.984</v>
       </c>
+      <c r="O69" t="n">
+        <v>90811</v>
+      </c>
+      <c r="P69" t="n">
+        <v>157088.992</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3601,6 +4011,12 @@
       </c>
       <c r="N70" t="n">
         <v>-77771.008</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-99875</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-319193.984</v>
       </c>
     </row>
     <row r="71">
@@ -3622,6 +4038,8 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3642,6 +4060,8 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3662,6 +4082,8 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3706,6 +4128,12 @@
       <c r="N74" t="n">
         <v>161224.992</v>
       </c>
+      <c r="O74" t="n">
+        <v>176840</v>
+      </c>
+      <c r="P74" t="n">
+        <v>216508.992</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3749,6 +4177,12 @@
       </c>
       <c r="N75" t="n">
         <v>-1644</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-4152</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-6420</v>
       </c>
     </row>
     <row r="76">
@@ -3793,6 +4227,12 @@
       </c>
       <c r="N76" t="n">
         <v>16068</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-16250</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-64445</v>
       </c>
     </row>
     <row r="77">
@@ -3814,6 +4254,8 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3834,6 +4276,8 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3868,6 +4312,12 @@
       <c r="N79" t="n">
         <v>-2437</v>
       </c>
+      <c r="O79" t="n">
+        <v>986</v>
+      </c>
+      <c r="P79" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3911,6 +4361,12 @@
       </c>
       <c r="N80" t="n">
         <v>173211.968</v>
+      </c>
+      <c r="O80" t="n">
+        <v>157424</v>
+      </c>
+      <c r="P80" t="n">
+        <v>146278</v>
       </c>
     </row>
   </sheetData>
